--- a/Excel/Stena 生产图纸 2SG.xlsx
+++ b/Excel/Stena 生产图纸 2SG.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Stena 生产图纸\Stena 生产图纸 2SG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7215" firstSheet="49" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stena 生产图纸 2SG_页面_01" sheetId="1" r:id="rId1"/>
@@ -65,12 +60,12 @@
     <sheet name="Stena 生产图纸 2SG_页面_51" sheetId="51" r:id="rId51"/>
     <sheet name="Stena 生产图纸 2SG_页面_52" sheetId="52" r:id="rId52"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1667">
   <si>
     <t xml:space="preserve">Drawing no. </t>
   </si>
@@ -31715,7 +31710,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -32358,24 +32353,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -32390,15 +32385,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -32457,7 +32452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32492,7 +32487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32669,18 +32664,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33406,11 +33401,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33485,7 +33481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33641,7 +33637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34299,7 +34295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34864,7 +34860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35180,7 +35176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35221,7 +35217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35286,7 +35282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35348,7 +35344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35409,7 +35405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35470,7 +35466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36204,7 +36200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36248,7 +36244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36292,7 +36288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36336,7 +36332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36394,7 +36390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36469,7 +36465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36513,7 +36509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36557,7 +36553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36601,7 +36597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36659,7 +36655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36703,11 +36699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37098,8 +37094,8 @@
       <c r="C23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>239</v>
+      <c r="D23" s="2">
+        <v>25</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -37117,7 +37113,7 @@
         <v>231</v>
       </c>
       <c r="D24" s="1">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -37468,7 +37464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37512,7 +37508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37584,7 +37580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37642,7 +37638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37686,7 +37682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37730,7 +37726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37772,7 +37768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37873,7 +37869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37914,7 +37910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37955,7 +37951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37996,7 +37992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -38514,7 +38510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -39127,7 +39123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -39734,11 +39730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40245,128 +40241,86 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
+      <c r="A37" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1089</v>
+        <v>379</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>208</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
+      <c r="A39" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>379</v>
+        <v>917</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>205</v>
+        <v>937</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>917</v>
+        <v>1011</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D45" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -40377,7 +40331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -40942,7 +40896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -41403,7 +41357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -42127,7 +42081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42336,7 +42290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -42937,7 +42891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -43524,11 +43478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43649,7 +43603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44253,14 +44207,17 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
@@ -44420,14 +44377,17 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="2" t="s">
@@ -44479,12 +44439,15 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="2" t="s">
@@ -44536,7 +44499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45144,7 +45107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45458,7 +45421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45533,7 +45496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
